--- a/figures/eval_figures_copy.xlsx
+++ b/figures/eval_figures_copy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D26FF758-B5A8-4085-BC60-4D2AA9B29A19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6258E8C9-074E-4619-9A8E-8615AFA1702B}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{D26FF758-B5A8-4085-BC60-4D2AA9B29A19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E869A09A-D89D-4FAB-8ED1-02AB2D7CC2E3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Fat-tree-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,18 @@
     <t>P4Neighbor-reactive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pkt size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4Neighbor_forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP_forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +273,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>NAIVE</c:v>
+            <c:v>1:1 Backup</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -393,7 +405,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>P4FRR</c:v>
+            <c:v>P4Neighbor</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4432,6 +4444,499 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>normal packet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>128</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>256</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>512</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1024</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1500</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$135:$D$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-704C-46DB-BCFA-EE7C20858FCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>packet in the link failure recovery</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>64</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>128</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>256</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>512</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1024</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1500</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$135:$E$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-704C-46DB-BCFA-EE7C20858FCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="701187423"/>
+        <c:axId val="701539935"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="701187423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>packet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> size (B)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701539935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="701539935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>latency (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701187423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4752,6 +5257,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
@@ -8273,6 +8818,509 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9065,6 +10113,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61B1BBC-EDA2-4875-8917-95BA1B3328EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9331,10 +10415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:N122"/>
+  <dimension ref="C1:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B111" workbookViewId="0">
-      <selection activeCell="Q128" sqref="Q128"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="U139" sqref="U139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9777,6 +10861,83 @@
       </c>
       <c r="D122">
         <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>64</v>
+      </c>
+      <c r="D135">
+        <v>1361</v>
+      </c>
+      <c r="E135">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>128</v>
+      </c>
+      <c r="D136">
+        <v>1326</v>
+      </c>
+      <c r="E136">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>256</v>
+      </c>
+      <c r="D137">
+        <v>1278</v>
+      </c>
+      <c r="E137">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>512</v>
+      </c>
+      <c r="D138">
+        <v>1270</v>
+      </c>
+      <c r="E138">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>1024</v>
+      </c>
+      <c r="D139">
+        <v>1293</v>
+      </c>
+      <c r="E139">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>1500</v>
+      </c>
+      <c r="D140">
+        <v>1374</v>
+      </c>
+      <c r="E140">
+        <v>978</v>
       </c>
     </row>
   </sheetData>
